--- a/biology/Zoologie/Blanus_strauchi/Blanus_strauchi.xlsx
+++ b/biology/Zoologie/Blanus_strauchi/Blanus_strauchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blanus strauchi est une espèce d'amphisbènes de la famille des Blanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanus strauchi est une espèce d'amphisbènes de la famille des Blanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Turquie en Anatolie ;
 en Syrie ;
 en Irak ;
@@ -548,9 +562,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 août 2014) :
 Blanus strauchi strauchi (Bedriaga, 1884)
 Blanus strauchi bedriagae Boulenger, 1884</t>
         </is>
@@ -580,9 +596,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Blanus strauchi aporus[3] a été élevée au rang d'espèce par Sindaco, Kornilios, Sacchi et Lymberakis en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Blanus strauchi aporus a été élevée au rang d'espèce par Sindaco, Kornilios, Sacchi et Lymberakis en 2014.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Strauch[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Strauch.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bedriaga, 1884 : Nachträgliche Bemerkung über Amphisbaena strauchi v. Bedr. Zoologische Anzeiger, vol. 7, no 1, p. 346 (texte intégral).
 Boulenger, 1884 : Descriptions of new Species of Reptiles and Batrachians in the British Museum - Part II. Annals and Magazine of Natural History, sér. 5, vol. 13, p. 396-398 (texte intégral).</t>
